--- a/models/Random Forests/Meta_BBoxes/metrics.xlsx
+++ b/models/Random Forests/Meta_BBoxes/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5918606407878805</v>
+        <v>0.5879178444514023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9996859100695793</v>
+        <v>0.9996370440244249</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8032165789233437</v>
+        <v>0.7985225647423998</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5460819885846149</v>
+        <v>0.5401452429554526</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692175449871466</v>
+        <v>0.7147051735218508</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7209888824189096</v>
+        <v>0.7161193243903843</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6597670314338595</v>
+        <v>0.6529626674323115</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7457959029932422</v>
+        <v>0.7332078742321355</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8838332357223436</v>
+        <v>0.8790614740600659</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8520756244218316</v>
+        <v>0.8424642804765234</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8658799218377307</v>
+        <v>0.8430092014971928</v>
       </c>
       <c r="M2" t="n">
-        <v>0.728653525395123</v>
+        <v>0.7103747990129035</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5817411800253548</v>
+        <v>0.6167659983490943</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9996379574084464</v>
+        <v>0.9997440812144537</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7990194493472504</v>
+        <v>0.7976747702443627</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5598942784089894</v>
+        <v>0.5497460616455641</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7568693766066839</v>
+        <v>0.7449453727506427</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7166180519611226</v>
+        <v>0.7091915041982977</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6776251748871405</v>
+        <v>0.6599889931322183</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7261415513048292</v>
+        <v>0.7369356142099006</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8777180189886906</v>
+        <v>0.8899641000192242</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8538806378466189</v>
+        <v>0.8464416557613772</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8473335840886573</v>
+        <v>0.84958350152288</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7177441661838292</v>
+        <v>0.7341214604072189</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5998693945292402</v>
+        <v>0.6130021960986952</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996418678337888</v>
+        <v>0.999744480819963</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8106498775143787</v>
+        <v>0.8127111165211039</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5245704089801236</v>
+        <v>0.5569934568460088</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7194898778920309</v>
+        <v>0.6900297236503856</v>
       </c>
       <c r="G4" t="n">
-        <v>0.72375839300092</v>
+        <v>0.722296806705774</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6605962386396658</v>
+        <v>0.6556883223387726</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7288891921004006</v>
+        <v>0.7424683701815393</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8804067919365871</v>
+        <v>0.8809663786024788</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8440334435143613</v>
+        <v>0.8547524734324587</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8479126912773843</v>
+        <v>0.8395861619757073</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7302288426145667</v>
+        <v>0.7214336408800568</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6053125663701313</v>
+        <v>0.61261902833033</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9996957004045606</v>
+        <v>0.9996728087175198</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8054047731353275</v>
+        <v>0.7894008094701926</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5228761925319374</v>
+        <v>0.537874899740743</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7425891709511568</v>
+        <v>0.7103382069408741</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7241358084598574</v>
+        <v>0.7126790027605244</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6665653142929868</v>
+        <v>0.6637801510642651</v>
       </c>
       <c r="I5" t="n">
-        <v>0.724344222363365</v>
+        <v>0.7252878080466142</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8792634021379042</v>
+        <v>0.8743519300896681</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8403945082466552</v>
+        <v>0.8555629667651903</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8644694231404352</v>
+        <v>0.8660817492936039</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7269216985573645</v>
+        <v>0.7335551511148276</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6248831338306486</v>
+        <v>0.6100096558277628</v>
       </c>
       <c r="C6" t="n">
-        <v>0.999616607056942</v>
+        <v>0.9996644455450722</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8035066263960318</v>
+        <v>0.8022194813000213</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5092098755271133</v>
+        <v>0.5674227489321855</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7545131748071979</v>
+        <v>0.7230044987146529</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7068268166264089</v>
+        <v>0.7352381132102599</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6582250274628736</v>
+        <v>0.6610010689779642</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7451482688277533</v>
+        <v>0.7366790588357383</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8928708211692158</v>
+        <v>0.8808356096812219</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8484832246564834</v>
+        <v>0.8519293196227522</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8658306117206708</v>
+        <v>0.8481844702946681</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7296414524348105</v>
+        <v>0.720436451026224</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5988085671933947</v>
+        <v>0.606083828349598</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996942732420269</v>
+        <v>0.9997032929092401</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7999628168649766</v>
+        <v>0.7996784752442103</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5323861664354136</v>
+        <v>0.5430173358252239</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7345196015424165</v>
+        <v>0.7226446015424164</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7204169182769727</v>
+        <v>0.7151465809753853</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6459554538942984</v>
+        <v>0.6596888453170208</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7340078081234848</v>
+        <v>0.7384835943888362</v>
       </c>
       <c r="J7" t="n">
-        <v>0.879781261968523</v>
+        <v>0.8725036548236967</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8390178329685701</v>
+        <v>0.85064783059949</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8305796117573666</v>
+        <v>0.8660462001394444</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7222685717826574</v>
+        <v>0.7221369759403193</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.609808219058108</v>
+        <v>0.6341503199998249</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9997162230017955</v>
+        <v>0.9996460636916379</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8054052486229877</v>
+        <v>0.7984583739082804</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5293649949414206</v>
+        <v>0.5385977757779846</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7337845437017994</v>
+        <v>0.7225241002570695</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7053450116459627</v>
+        <v>0.7332476959684839</v>
       </c>
       <c r="H8" t="n">
-        <v>0.639030770146282</v>
+        <v>0.6703716750810855</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7503562468350964</v>
+        <v>0.7369740494719474</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8703152313380454</v>
+        <v>0.8868178221274426</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8571860686807609</v>
+        <v>0.8474509826041832</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8489619646985432</v>
+        <v>0.8801259586804153</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7217693380409722</v>
+        <v>0.7142236579939044</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5852493546360016</v>
+        <v>0.625299144550588</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9996710961224793</v>
+        <v>0.9996837122392773</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8069558138827182</v>
+        <v>0.7942726560360306</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5811465233234283</v>
+        <v>0.5539761676078548</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7453872107969153</v>
+        <v>0.7028462403598972</v>
       </c>
       <c r="G9" t="n">
-        <v>0.708276271710375</v>
+        <v>0.7146968275534853</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6649729237133715</v>
+        <v>0.6296597296758447</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7236197176737826</v>
+        <v>0.7285346268080188</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8661593130570717</v>
+        <v>0.8867287800414586</v>
       </c>
       <c r="K9" t="n">
-        <v>0.853875349721351</v>
+        <v>0.8457104843076644</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8461111518843346</v>
+        <v>0.8668569502036623</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7371472065588391</v>
+        <v>0.7312321012087014</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.603078698280562</v>
+        <v>0.6089553970822321</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9996771472916223</v>
+        <v>0.9996680134514065</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7996822791454916</v>
+        <v>0.8015861317367092</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5966996166660584</v>
+        <v>0.5654940442313172</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7353454370179948</v>
+        <v>0.7096151992287918</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7179897774327122</v>
+        <v>0.7344877753335634</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6363290054421882</v>
+        <v>0.6559285274643938</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7281512350691017</v>
+        <v>0.7497066909065053</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8870525355758525</v>
+        <v>0.8825322526082998</v>
       </c>
       <c r="K10" t="n">
-        <v>0.853018673427946</v>
+        <v>0.846629560479231</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8496029962203222</v>
+        <v>0.849463093097501</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7200483710542808</v>
+        <v>0.7333916145340582</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6067461612063436</v>
+        <v>0.6021448636908033</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9997066610128197</v>
+        <v>0.999612582458597</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8060585686680259</v>
+        <v>0.8007820821034052</v>
       </c>
       <c r="E11" t="n">
-        <v>0.53271538173057</v>
+        <v>0.5511211566637757</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7415833868894601</v>
+        <v>0.7189436053984576</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7126996707499424</v>
+        <v>0.7149259726535543</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6453551582639034</v>
+        <v>0.6625322137660559</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7384028803385377</v>
+        <v>0.7267435435966373</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8858763604065981</v>
+        <v>0.8793606405665312</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8557099766476389</v>
+        <v>0.8518242622007626</v>
       </c>
       <c r="L11" t="n">
-        <v>0.849261265641628</v>
+        <v>0.8667892921360684</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7340687581888069</v>
+        <v>0.7217348420434662</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6262554218239225</v>
+        <v>0.6282320201261608</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9997171649290677</v>
+        <v>0.9996732368662798</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7977075788929127</v>
+        <v>0.7937919380116247</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5531508000164607</v>
+        <v>0.5404814463111194</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7341356041131105</v>
+        <v>0.6975096401028278</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7173629981884058</v>
+        <v>0.7187756103347136</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6580543211077756</v>
+        <v>0.6784687162143672</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7387257365397309</v>
+        <v>0.7378474908019613</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8856487256177434</v>
+        <v>0.8738404037965459</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8495905580875883</v>
+        <v>0.8597264840594752</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8498633077685223</v>
+        <v>0.8492085152838429</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7328888673111456</v>
+        <v>0.7363186638039247</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6277443022952843</v>
+        <v>0.6309771434952345</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9997625772408907</v>
+        <v>0.9996389278789692</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7921862161833176</v>
+        <v>0.7888939396244788</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5026861328150781</v>
+        <v>0.5523658078857934</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7325755141388175</v>
+        <v>0.7300827442159383</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7181358012709915</v>
+        <v>0.703924312025535</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6565309949313678</v>
+        <v>0.6449707431894462</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7381251855702495</v>
+        <v>0.7341490577115068</v>
       </c>
       <c r="J13" t="n">
-        <v>0.876021748622642</v>
+        <v>0.8769423469258499</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8529062126305814</v>
+        <v>0.8376002628550798</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8498954166819567</v>
+        <v>0.8500467872738616</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7110886745168484</v>
+        <v>0.7205517570919617</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6157922048349205</v>
+        <v>0.6200240191452512</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9996641601125654</v>
+        <v>0.9996610774414926</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8031680791820092</v>
+        <v>0.8076647659839932</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5272522713137787</v>
+        <v>0.5713655679623825</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7164572622107969</v>
+        <v>0.7417986825192802</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7218872660024157</v>
+        <v>0.7211124410512999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6573840923395415</v>
+        <v>0.6459641412406139</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7370845508503322</v>
+        <v>0.7522021002948945</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8849799785702896</v>
+        <v>0.8827878294743461</v>
       </c>
       <c r="K14" t="n">
-        <v>0.852079854922046</v>
+        <v>0.8484148315696849</v>
       </c>
       <c r="L14" t="n">
-        <v>0.847694809364794</v>
+        <v>0.8457751550401822</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7234848751021306</v>
+        <v>0.729092071733788</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.623984331722569</v>
+        <v>0.6213005151964337</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9996329908828291</v>
+        <v>0.9996423245257996</v>
       </c>
       <c r="D15" t="n">
-        <v>0.805712889139101</v>
+        <v>0.8070789651866956</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5346262280545783</v>
+        <v>0.5298968639913783</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7247855077120824</v>
+        <v>0.7162291131105398</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7206829063146997</v>
+        <v>0.7011826582988268</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6591489267435178</v>
+        <v>0.6404463732283785</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7341154268572159</v>
+        <v>0.7382558654612088</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8821270924890207</v>
+        <v>0.8717801413049472</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8513976867624828</v>
+        <v>0.8503784887525102</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8671057942827787</v>
+        <v>0.8655450717404866</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7284120534125803</v>
+        <v>0.7440272416169935</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6027020991025116</v>
+        <v>0.6069590930090493</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9996752634370778</v>
+        <v>0.9997314936409063</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8056192180700527</v>
+        <v>0.7896566218313502</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5269541140653353</v>
+        <v>0.5305785881167254</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7452217223650386</v>
+        <v>0.7155767994858612</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7149524815965034</v>
+        <v>0.7183249583045779</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6487462638981252</v>
+        <v>0.63862116176751</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7259556207246777</v>
+        <v>0.7420157949709382</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8862660592431646</v>
+        <v>0.891384302662619</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8551550760361905</v>
+        <v>0.840797815933756</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8473289971010239</v>
+        <v>0.8474482587794944</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7084676175211561</v>
+        <v>0.7157823660293638</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6144790341544801</v>
+        <v>0.5982184888301122</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9997328351736879</v>
+        <v>0.9997153381610245</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8029003796293479</v>
+        <v>0.8020925260947629</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5232046313759258</v>
+        <v>0.5443411850663595</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7110258676092545</v>
+        <v>0.7231715938303342</v>
       </c>
       <c r="G17" t="n">
-        <v>0.729739978720957</v>
+        <v>0.722282428974005</v>
       </c>
       <c r="H17" t="n">
-        <v>0.636058394604463</v>
+        <v>0.6537684188030661</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7428940407087078</v>
+        <v>0.7135900360426669</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8782086818641762</v>
+        <v>0.8820687866879473</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8446179576273097</v>
+        <v>0.8504021090453734</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8489126545814834</v>
+        <v>0.849856427287072</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7245507375435911</v>
+        <v>0.7259577270715006</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6167254920421529</v>
+        <v>0.5946599550270517</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9996299938415082</v>
+        <v>0.9996739219042962</v>
       </c>
       <c r="D18" t="n">
-        <v>0.797557324792307</v>
+        <v>0.7901287810778733</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5563148385253328</v>
+        <v>0.5696061296160992</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7274397493573265</v>
+        <v>0.7171160025706942</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7159885768921095</v>
+        <v>0.7129023069070622</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6402726263020704</v>
+        <v>0.6696349881135384</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7294330510583631</v>
+        <v>0.7303564582290376</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8798740296647993</v>
+        <v>0.8846316340079668</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8642686311229439</v>
+        <v>0.8585151508314344</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8498724817437893</v>
+        <v>0.8665851711863785</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7229061089217509</v>
+        <v>0.726022886177901</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6182182041911986</v>
+        <v>0.6146613125357168</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9997264985720383</v>
+        <v>0.9997719394271117</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8034338767840297</v>
+        <v>0.7980637191503605</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5393532627642749</v>
+        <v>0.5319164134788816</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7725658740359898</v>
+        <v>0.687738592544987</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7178850895732689</v>
+        <v>0.7306035412353347</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6482189419767797</v>
+        <v>0.666485825074201</v>
       </c>
       <c r="I19" t="n">
-        <v>0.748735239658272</v>
+        <v>0.7320120571417041</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8931502419411324</v>
+        <v>0.8863334927894538</v>
       </c>
       <c r="K19" t="n">
-        <v>0.851058541661966</v>
+        <v>0.850928453780375</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8696229037466515</v>
+        <v>0.8296083171259769</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7281054223236375</v>
+        <v>0.7183529566583343</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6017113367300243</v>
+        <v>0.5940299177393539</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9996539130855733</v>
+        <v>0.9995890913632919</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7983195315115181</v>
+        <v>0.7887874303886065</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5428084704610801</v>
+        <v>0.5323403558165122</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6998545951156812</v>
+        <v>0.7216380141388175</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7352556360708535</v>
+        <v>0.7296357401656316</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6484504597560854</v>
+        <v>0.6706948443640189</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7437521079339029</v>
+        <v>0.7441028297000801</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8868040373693615</v>
+        <v>0.8768071072722422</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8458204773132374</v>
+        <v>0.846512869181652</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8667503027411837</v>
+        <v>0.8465457689626069</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7197791106293028</v>
+        <v>0.7395702309762558</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6117021625988847</v>
+        <v>0.6092022666015646</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9996779750458918</v>
+        <v>0.9996829701147598</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8065283504762486</v>
+        <v>0.8058617167767261</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5637144181546706</v>
+        <v>0.5417416265564934</v>
       </c>
       <c r="F21" t="n">
-        <v>0.719392673521851</v>
+        <v>0.7365078727506427</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7171711453301128</v>
+        <v>0.7125266886645963</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6516169974880537</v>
+        <v>0.6540216549481604</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7465434688400527</v>
+        <v>0.7453481321903968</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8799325217463873</v>
+        <v>0.8802182760558007</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8585740252927505</v>
+        <v>0.8437189763317613</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8488381160324393</v>
+        <v>0.847982642838795</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7290154139615523</v>
+        <v>0.738122357303154</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/Meta_BBoxes/metrics.xlsx
+++ b/models/Random Forests/Meta_BBoxes/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5879178444514023</v>
+        <v>0.6074386001020321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9996370440244249</v>
+        <v>0.999744851882222</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7985225647423998</v>
+        <v>0.804285475183348</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5401452429554526</v>
+        <v>0.5022202621143852</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7147051735218508</v>
+        <v>0.7154153277634961</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7161193243903843</v>
+        <v>0.727365406458477</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6529626674323115</v>
+        <v>0.6575964979569533</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7332078742321355</v>
+        <v>0.737078785561025</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8790614740600659</v>
+        <v>0.8779314964584348</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8424642804765234</v>
+        <v>0.8642725090814737</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8430092014971928</v>
+        <v>0.8497314318740596</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7103747990129035</v>
+        <v>0.7176406781913109</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6167659983490943</v>
+        <v>0.612894909123553</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9997440812144537</v>
+        <v>0.9996966708750836</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7976747702443627</v>
+        <v>0.8126759304342533</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5497460616455641</v>
+        <v>0.5100639718117168</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7449453727506427</v>
+        <v>0.7618517030848329</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7091915041982977</v>
+        <v>0.7015519862836438</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6599889931322183</v>
+        <v>0.6449629245777624</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7369356142099006</v>
+        <v>0.7344219480720392</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8899641000192242</v>
+        <v>0.8770455463309446</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8464416557613772</v>
+        <v>0.8493726873265495</v>
       </c>
       <c r="L3" t="n">
-        <v>0.84958350152288</v>
+        <v>0.8319430938314191</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7341214604072189</v>
+        <v>0.7248819630011263</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6130021960986952</v>
+        <v>0.6070149260267255</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999744480819963</v>
+        <v>0.9996351601698803</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8127111165211039</v>
+        <v>0.8023882794193726</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5569934568460088</v>
+        <v>0.5164378594483625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6900297236503856</v>
+        <v>0.7190866002570695</v>
       </c>
       <c r="G4" t="n">
-        <v>0.722296806705774</v>
+        <v>0.6997105133569128</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6556883223387726</v>
+        <v>0.6464905944273279</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7424683701815393</v>
+        <v>0.7582489278964092</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8809663786024788</v>
+        <v>0.8879198576518819</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8547524734324587</v>
+        <v>0.8505297291351731</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8395861619757073</v>
+        <v>0.8675449983486844</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7214336408800568</v>
+        <v>0.7196152546411491</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.61261902833033</v>
+        <v>0.5973147602792965</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9996728087175198</v>
+        <v>0.999643951491088</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7894008094701926</v>
+        <v>0.8109622729070934</v>
       </c>
       <c r="E5" t="n">
-        <v>0.537874899740743</v>
+        <v>0.5879008720323067</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7103382069408741</v>
+        <v>0.7348248714652956</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7126790027605244</v>
+        <v>0.7157423582355646</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6637801510642651</v>
+        <v>0.6488648461753307</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7252878080466142</v>
+        <v>0.7334437706529477</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8743519300896681</v>
+        <v>0.8742461227573689</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8555629667651903</v>
+        <v>0.8527955145416394</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8660817492936039</v>
+        <v>0.8493220432277716</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7335551511148276</v>
+        <v>0.7340055155267123</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6100096558277628</v>
+        <v>0.6397806966646887</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9996644455450722</v>
+        <v>0.9996641315693148</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8022194813000213</v>
+        <v>0.7777223570493899</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5674227489321855</v>
+        <v>0.5224033337707341</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7230044987146529</v>
+        <v>0.7259752570694087</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7352381132102599</v>
+        <v>0.7154705292443064</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6610010689779642</v>
+        <v>0.662092634042496</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7366790588357383</v>
+        <v>0.7369673233010895</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8808356096812219</v>
+        <v>0.8801638821455344</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8519293196227522</v>
+        <v>0.85468408034566</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8481844702946681</v>
+        <v>0.8673156489670104</v>
       </c>
       <c r="M6" t="n">
-        <v>0.720436451026224</v>
+        <v>0.7210621700920978</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.606083828349598</v>
+        <v>0.6209266529310145</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9997032929092401</v>
+        <v>0.9996564819781339</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7996784752442103</v>
+        <v>0.7983608989379508</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5430173358252239</v>
+        <v>0.5238483093940497</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7226446015424164</v>
+        <v>0.7284720437017994</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7151465809753853</v>
+        <v>0.7167793521394064</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6596888453170208</v>
+        <v>0.6567568659355686</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7384835943888362</v>
+        <v>0.7211617826658889</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8725036548236967</v>
+        <v>0.8877853631203326</v>
       </c>
       <c r="K7" t="n">
-        <v>0.85064783059949</v>
+        <v>0.8496748155501906</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8660462001394444</v>
+        <v>0.8677365050823822</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7221369759403193</v>
+        <v>0.7310548301104063</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6341503199998249</v>
+        <v>0.6335815895550656</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996460636916379</v>
+        <v>0.9996889071109001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7984583739082804</v>
+        <v>0.81009403243967</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5385977757779846</v>
+        <v>0.5436338380524741</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7225241002570695</v>
+        <v>0.7606852506426736</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7332476959684839</v>
+        <v>0.7153932489360479</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6703716750810855</v>
+        <v>0.6825504658806646</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7369740494719474</v>
+        <v>0.745727680403109</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8868178221274426</v>
+        <v>0.8910013099245787</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8474509826041832</v>
+        <v>0.840034563186751</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8801259586804153</v>
+        <v>0.8831029136545447</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7142236579939044</v>
+        <v>0.7309178043425351</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.625299144550588</v>
+        <v>0.6215227525020856</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9996837122392773</v>
+        <v>0.9996616768497568</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7942726560360306</v>
+        <v>0.8000973798727975</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5539761676078548</v>
+        <v>0.5432984111479753</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7028462403598972</v>
+        <v>0.7402377892030847</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7146968275534853</v>
+        <v>0.7027480338451806</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6296597296758447</v>
+        <v>0.6667386268519794</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7285346268080188</v>
+        <v>0.7504110170835131</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8867287800414586</v>
+        <v>0.8883117918546238</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8457104843076644</v>
+        <v>0.8463573982987749</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8668569502036623</v>
+        <v>0.8116020971707459</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7312321012087014</v>
+        <v>0.7368511159135785</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6089553970822321</v>
+        <v>0.5884542793271136</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9996680134514065</v>
+        <v>0.999718820437607</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8015861317367092</v>
+        <v>0.8001149729162229</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5654940442313172</v>
+        <v>0.5304846375254191</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7096151992287918</v>
+        <v>0.7459085796915168</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7344877753335634</v>
+        <v>0.7217895423567978</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6559285274643938</v>
+        <v>0.6432350113956266</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7497066909065053</v>
+        <v>0.7074259808919094</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8825322526082998</v>
+        <v>0.8805673657401819</v>
       </c>
       <c r="K10" t="n">
-        <v>0.846629560479231</v>
+        <v>0.8527006808285013</v>
       </c>
       <c r="L10" t="n">
-        <v>0.849463093097501</v>
+        <v>0.8485938589409564</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7333916145340582</v>
+        <v>0.7160787760820084</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6021448636908033</v>
+        <v>0.6041636104475618</v>
       </c>
       <c r="C11" t="n">
-        <v>0.999612582458597</v>
+        <v>0.9996803155924471</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8007820821034052</v>
+        <v>0.8036654392745199</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5511211566637757</v>
+        <v>0.535562628162971</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7189436053984576</v>
+        <v>0.715153438303342</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7149259726535543</v>
+        <v>0.7182530696457328</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6625322137660559</v>
+        <v>0.6494768697232516</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7267435435966373</v>
+        <v>0.7316603744939758</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8793606405665312</v>
+        <v>0.8831697045292989</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8518242622007626</v>
+        <v>0.8462276629588682</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8667892921360684</v>
+        <v>0.8500055043851603</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7217348420434662</v>
+        <v>0.7181852677815688</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6282320201261608</v>
+        <v>0.5988463365877049</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9996732368662798</v>
+        <v>0.9996617624795089</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7937919380116247</v>
+        <v>0.8117558618118742</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5404814463111194</v>
+        <v>0.5649637280836952</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6975096401028278</v>
+        <v>0.7637162596401028</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7187756103347136</v>
+        <v>0.712333038589832</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6784687162143672</v>
+        <v>0.6605931980684555</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7378474908019613</v>
+        <v>0.7438664528384922</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8738404037965459</v>
+        <v>0.8605958592076968</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8597264840594752</v>
+        <v>0.8510155315764536</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8492085152838429</v>
+        <v>0.8487670177241203</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7363186638039247</v>
+        <v>0.7150336751205284</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6309771434952345</v>
+        <v>0.6306032812298153</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9996389278789692</v>
+        <v>0.9996999818921618</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7888939396244788</v>
+        <v>0.804120005477618</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5523658078857934</v>
+        <v>0.5217868315434839</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7300827442159383</v>
+        <v>0.7573312982005141</v>
       </c>
       <c r="G13" t="n">
-        <v>0.703924312025535</v>
+        <v>0.7105084145675178</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6449707431894462</v>
+        <v>0.6602735037240482</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7341490577115068</v>
+        <v>0.7417371393210987</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8769423469258499</v>
+        <v>0.888511857127316</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8376002628550798</v>
+        <v>0.8573454175221679</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8500467872738616</v>
+        <v>0.8829010861986716</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7205517570919617</v>
+        <v>0.7228780010719312</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6200240191452512</v>
+        <v>0.6134302492342117</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9996610774414926</v>
+        <v>0.9996838834987813</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8076647659839932</v>
+        <v>0.8011619967438606</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5713655679623825</v>
+        <v>0.484277252077201</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7417986825192802</v>
+        <v>0.7371650064267353</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7211124410512999</v>
+        <v>0.715198700253048</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6459641412406139</v>
+        <v>0.6416665110183786</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7522021002948945</v>
+        <v>0.7474399713272946</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8827878294743461</v>
+        <v>0.8722801182061635</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8484148315696849</v>
+        <v>0.8514040325128043</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8457751550401822</v>
+        <v>0.9017100289897618</v>
       </c>
       <c r="M14" t="n">
-        <v>0.729092071733788</v>
+        <v>0.7388560360649266</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6213005151964337</v>
+        <v>0.6030168440550973</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9996423245257996</v>
+        <v>0.9996466916431528</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8070789651866956</v>
+        <v>0.7913507843644443</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5298968639913783</v>
+        <v>0.5453793002777365</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7162291131105398</v>
+        <v>0.7401478149100258</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7011826582988268</v>
+        <v>0.7114789114619278</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6404463732283785</v>
+        <v>0.6628497362738842</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7382558654612088</v>
+        <v>0.719091082923117</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8717801413049472</v>
+        <v>0.8815322988058674</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8503784887525102</v>
+        <v>0.8545941822161052</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8655450717404866</v>
+        <v>0.8669980000733919</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7440272416169935</v>
+        <v>0.7052875976029114</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6069590930090493</v>
+        <v>0.6060553644582336</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9997314936409063</v>
+        <v>0.999648860930204</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7896566218313502</v>
+        <v>0.7991701789355163</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5305785881167254</v>
+        <v>0.5409317879884558</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7155767994858612</v>
+        <v>0.7311696658097686</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7183249583045779</v>
+        <v>0.721196910225443</v>
       </c>
       <c r="H16" t="n">
-        <v>0.63862116176751</v>
+        <v>0.6837019736347727</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7420157949709382</v>
+        <v>0.7385277949401899</v>
       </c>
       <c r="J16" t="n">
-        <v>0.891384302662619</v>
+        <v>0.8700365556881874</v>
       </c>
       <c r="K16" t="n">
-        <v>0.840797815933756</v>
+        <v>0.8472690710949662</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8474482587794944</v>
+        <v>0.8484298741330595</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7157823660293638</v>
+        <v>0.7230396212083948</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5982184888301122</v>
+        <v>0.6075431501645432</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9997153381610245</v>
+        <v>0.9996586227219346</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8020925260947629</v>
+        <v>0.7950938232250997</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5443411850663595</v>
+        <v>0.5436509199781662</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7231715938303342</v>
+        <v>0.7277401992287917</v>
       </c>
       <c r="G17" t="n">
-        <v>0.722282428974005</v>
+        <v>0.7137339688290776</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6537684188030661</v>
+        <v>0.6649668425709507</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7135900360426669</v>
+        <v>0.7463378401881022</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8820687866879473</v>
+        <v>0.8849401145401627</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8504021090453734</v>
+        <v>0.8605274587667244</v>
       </c>
       <c r="L17" t="n">
-        <v>0.849856427287072</v>
+        <v>0.8684555153939306</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7259577270715006</v>
+        <v>0.7226285439047808</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5946599550270517</v>
+        <v>0.6201455380660756</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9996739219042962</v>
+        <v>0.9996718953334982</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7901287810778733</v>
+        <v>0.8110440567846383</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5696061296160992</v>
+        <v>0.5612095866872788</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7171160025706942</v>
+        <v>0.76115279562982</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7129023069070622</v>
+        <v>0.7235422777202668</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6696349881135384</v>
+        <v>0.6619688393575013</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7303564582290376</v>
+        <v>0.7381309508595566</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8846316340079668</v>
+        <v>0.8804362242578958</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8585151508314344</v>
+        <v>0.8503277227499381</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8665851711863785</v>
+        <v>0.8474046823969763</v>
       </c>
       <c r="M18" t="n">
-        <v>0.726022886177901</v>
+        <v>0.7142645421390967</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6146613125357168</v>
+        <v>0.6231271306864834</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9997719394271117</v>
+        <v>0.999714253517499</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7980637191503605</v>
+        <v>0.7971213026079547</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5319164134788816</v>
+        <v>0.5422144853176967</v>
       </c>
       <c r="F19" t="n">
-        <v>0.687738592544987</v>
+        <v>0.7390351863753213</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7306035412353347</v>
+        <v>0.7277823606797792</v>
       </c>
       <c r="H19" t="n">
-        <v>0.666485825074201</v>
+        <v>0.651652615607947</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7320120571417041</v>
+        <v>0.7358017739795197</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8863334927894538</v>
+        <v>0.8829342459588306</v>
       </c>
       <c r="K19" t="n">
-        <v>0.850928453780375</v>
+        <v>0.8490462337266759</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8296083171259769</v>
+        <v>0.8665106326373344</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7183529566583343</v>
+        <v>0.7231181954249364</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5940299177393539</v>
+        <v>0.6018826674607363</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9995890913632919</v>
+        <v>0.9997489906535697</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7887874303886065</v>
+        <v>0.7999628168649767</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5323403558165122</v>
+        <v>0.5525374035938818</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7216380141388175</v>
+        <v>0.7153478470437018</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7296357401656316</v>
+        <v>0.7123676350069014</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6706948443640189</v>
+        <v>0.6452131201516463</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7441028297000801</v>
+        <v>0.7482874688554267</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8768071072722422</v>
+        <v>0.879264892382021</v>
       </c>
       <c r="K20" t="n">
-        <v>0.846512869181652</v>
+        <v>0.8444811714537127</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8465457689626069</v>
+        <v>0.8471535448240433</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7395702309762558</v>
+        <v>0.7295989712526966</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6092022666015646</v>
+        <v>0.5968899914389373</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9996829701147598</v>
+        <v>0.999662618777029</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8058617167767261</v>
+        <v>0.8160404811174341</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5417416265564934</v>
+        <v>0.5726257482077566</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7365078727506427</v>
+        <v>0.7386479755784061</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7125266886645963</v>
+        <v>0.721231506642512</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6540216549481604</v>
+        <v>0.652345865843917</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7453481321903968</v>
+        <v>0.7373007491993455</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8802182760558007</v>
+        <v>0.8936211590820692</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8437189763317613</v>
+        <v>0.8589639363958395</v>
       </c>
       <c r="L21" t="n">
-        <v>0.847982642838795</v>
+        <v>0.8673053282448351</v>
       </c>
       <c r="M21" t="n">
-        <v>0.738122357303154</v>
+        <v>0.7207941872966572</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/Meta_BBoxes/metrics.xlsx
+++ b/models/Random Forests/Meta_BBoxes/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6074386001020321</v>
+        <v>0.6129293942227058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.999744851882222</v>
+        <v>0.9996587083516868</v>
       </c>
       <c r="D2" t="n">
-        <v>0.804285475183348</v>
+        <v>0.8170599266607833</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5022202621143852</v>
+        <v>0.5446867058360398</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7154153277634961</v>
+        <v>0.7451727185089975</v>
       </c>
       <c r="G2" t="n">
-        <v>0.727365406458477</v>
+        <v>0.711879241430872</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6575964979569533</v>
+        <v>0.6501605638782746</v>
       </c>
       <c r="I2" t="n">
-        <v>0.737078785561025</v>
+        <v>0.7067168503071459</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8779314964584348</v>
+        <v>0.8851286304209494</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8642725090814737</v>
+        <v>0.8571938245978203</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8497314318740596</v>
+        <v>0.8666608564823309</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7176406781913109</v>
+        <v>0.7359104611667696</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.612894909123553</v>
+        <v>0.611832987022655</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9996966708750836</v>
+        <v>0.9996659297941072</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8126759304342533</v>
+        <v>0.8068483536715256</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5100639718117168</v>
+        <v>0.5343373882201488</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7618517030848329</v>
+        <v>0.7172035668380463</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7015519862836438</v>
+        <v>0.7212804807913503</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6449629245777624</v>
+        <v>0.6319736043669553</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7344219480720392</v>
+        <v>0.749411700270296</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8770455463309446</v>
+        <v>0.8852329475091315</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8493726873265495</v>
+        <v>0.8595745385934433</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8319430938314191</v>
+        <v>0.8483645095592823</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7248819630011263</v>
+        <v>0.7215125345039827</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6070149260267255</v>
+        <v>0.6036797242943691</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996351601698803</v>
+        <v>0.9996396700034869</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8023882794193726</v>
+        <v>0.8137010818295243</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5164378594483625</v>
+        <v>0.5336789576298362</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7190866002570695</v>
+        <v>0.7284648136246786</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6997105133569128</v>
+        <v>0.7076229835231194</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6464905944273279</v>
+        <v>0.6486997865953377</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7582489278964092</v>
+        <v>0.7464704418421637</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8879198576518819</v>
+        <v>0.8858070640551629</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8505297291351731</v>
+        <v>0.8495694055865165</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8675449983486844</v>
+        <v>0.8683947378077869</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7196152546411491</v>
+        <v>0.7372813576602516</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5973147602792965</v>
+        <v>0.5896820583334611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.999643951491088</v>
+        <v>0.9996521434040316</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8109622729070934</v>
+        <v>0.8016645872006329</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5879008720323067</v>
+        <v>0.5396560787197252</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7348248714652956</v>
+        <v>0.7007583547557841</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7157423582355646</v>
+        <v>0.7090526692259028</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6488648461753307</v>
+        <v>0.6530312974682032</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7334437706529477</v>
+        <v>0.743967345401365</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8742461227573689</v>
+        <v>0.8814149420816625</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8527955145416394</v>
+        <v>0.8504588682565827</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8493220432277716</v>
+        <v>0.849150031191516</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7340055155267123</v>
+        <v>0.7171085454890415</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6397806966646887</v>
+        <v>0.6322640398144154</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9996641315693148</v>
+        <v>0.9997149956420165</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7777223570493899</v>
+        <v>0.817210180761389</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5224033337707341</v>
+        <v>0.547641878980768</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7259752570694087</v>
+        <v>0.7038367609254499</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7154705292443064</v>
+        <v>0.7112928995571658</v>
       </c>
       <c r="H6" t="n">
-        <v>0.662092634042496</v>
+        <v>0.6678080391834068</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7369673233010895</v>
+        <v>0.7428719404330308</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8801638821455344</v>
+        <v>0.8750445210429921</v>
       </c>
       <c r="K6" t="n">
-        <v>0.85468408034566</v>
+        <v>0.8467458992351254</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8673156489670104</v>
+        <v>0.8671883600601813</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7210621700920978</v>
+        <v>0.7140812023004998</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6209266529310145</v>
+        <v>0.6235102984548485</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996564819781339</v>
+        <v>0.9996933884012561</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7983608989379508</v>
+        <v>0.805452321901342</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5238483093940497</v>
+        <v>0.5499828792517496</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7284720437017994</v>
+        <v>0.7212082262210796</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7167793521394064</v>
+        <v>0.7084438621463077</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6567568659355686</v>
+        <v>0.6661322500791634</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7211617826658889</v>
+        <v>0.7507242644691946</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8877853631203326</v>
+        <v>0.87790988791874</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8496748155501906</v>
+        <v>0.8509383249475418</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8677365050823822</v>
+        <v>0.848849583501523</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7310548301104063</v>
+        <v>0.7442476327121712</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6335815895550656</v>
+        <v>0.6264114258438997</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996889071109001</v>
+        <v>0.9996470056189102</v>
       </c>
       <c r="D8" t="n">
-        <v>0.81009403243967</v>
+        <v>0.8016698175648944</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5436338380524741</v>
+        <v>0.5169099417583979</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7606852506426736</v>
+        <v>0.6876124678663239</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7153932489360479</v>
+        <v>0.7296622491085806</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6825504658806646</v>
+        <v>0.6651410238645747</v>
       </c>
       <c r="I8" t="n">
-        <v>0.745727680403109</v>
+        <v>0.7456882842595109</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8910013099245787</v>
+        <v>0.8824428379612863</v>
       </c>
       <c r="K8" t="n">
-        <v>0.840034563186751</v>
+        <v>0.8552449741657454</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8831029136545447</v>
+        <v>0.8484608362995854</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7309178043425351</v>
+        <v>0.73193735271327</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6215227525020856</v>
+        <v>0.6138440704240462</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9996616768497568</v>
+        <v>0.9996917899792183</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8000973798727975</v>
+        <v>0.8098310877636103</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5432984111479753</v>
+        <v>0.5488647895700867</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7402377892030847</v>
+        <v>0.6769191838046273</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7027480338451806</v>
+        <v>0.7147493961352658</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6667386268519794</v>
+        <v>0.6622116506870172</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7504110170835131</v>
+        <v>0.7530755416249084</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8883117918546238</v>
+        <v>0.8718065931380219</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8463573982987749</v>
+        <v>0.8454950813384174</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8116020971707459</v>
+        <v>0.8695403379692488</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7368511159135785</v>
+        <v>0.7062509302740069</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5884542793271136</v>
+        <v>0.6242470753351623</v>
       </c>
       <c r="C10" t="n">
-        <v>0.999718820437607</v>
+        <v>0.9996456926293792</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8001149729162229</v>
+        <v>0.8032265641642067</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5304846375254191</v>
+        <v>0.5537556554761937</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7459085796915168</v>
+        <v>0.7490207262210796</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7217895423567978</v>
+        <v>0.7236236017655855</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6432350113956266</v>
+        <v>0.6604885155453548</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7074259808919094</v>
+        <v>0.7350263425677253</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8805673657401819</v>
+        <v>0.8840523016075262</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8527006808285013</v>
+        <v>0.8450332517316846</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8485938589409564</v>
+        <v>0.8632722193680965</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7160787760820084</v>
+        <v>0.7168983754301619</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6041636104475618</v>
+        <v>0.6090145143950656</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9996803155924471</v>
+        <v>0.9996186336277398</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8036654392745199</v>
+        <v>0.8087436474848605</v>
       </c>
       <c r="E11" t="n">
-        <v>0.535562628162971</v>
+        <v>0.5516910718209566</v>
       </c>
       <c r="F11" t="n">
-        <v>0.715153438303342</v>
+        <v>0.7259905205655527</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7182530696457328</v>
+        <v>0.716526393921095</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6494768697232516</v>
+        <v>0.6495659150229846</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7316603744939758</v>
+        <v>0.7363302588326635</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8831697045292989</v>
+        <v>0.8789877069762797</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8462276629588682</v>
+        <v>0.8543664402878998</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8500055043851603</v>
+        <v>0.8661723422993651</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7181852677815688</v>
+        <v>0.7171366533388612</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5988463365877049</v>
+        <v>0.6045122931167743</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9996617624795089</v>
+        <v>0.9996334475748399</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8117558618118742</v>
+        <v>0.8068645202519705</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5649637280836952</v>
+        <v>0.5396079387473203</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7637162596401028</v>
+        <v>0.6856675771208227</v>
       </c>
       <c r="G12" t="n">
-        <v>0.712333038589832</v>
+        <v>0.7199020157579941</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6605931980684555</v>
+        <v>0.6832041886908994</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7438664528384922</v>
+        <v>0.7348841320981522</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8605958592076968</v>
+        <v>0.8798561467353967</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8510155315764536</v>
+        <v>0.8580688330588209</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8487670177241203</v>
+        <v>0.8646425819235992</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7150336751205284</v>
+        <v>0.7245012293990223</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6306032812298153</v>
+        <v>0.6030557082144602</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9996999818921618</v>
+        <v>0.999698297840372</v>
       </c>
       <c r="D13" t="n">
-        <v>0.804120005477618</v>
+        <v>0.805781834849822</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5217868315434839</v>
+        <v>0.554570929202406</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7573312982005141</v>
+        <v>0.7059583868894601</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7105084145675178</v>
+        <v>0.7225277490223142</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6602735037240482</v>
+        <v>0.6467464367763169</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7417371393210987</v>
+        <v>0.7279725111005841</v>
       </c>
       <c r="J13" t="n">
-        <v>0.888511857127316</v>
+        <v>0.8758906071403556</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8573454175221679</v>
+        <v>0.8400899122312223</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8829010861986716</v>
+        <v>0.8635371179039301</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7228780010719312</v>
+        <v>0.7315342605942639</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6134302492342117</v>
+        <v>0.6266336631495515</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9996838834987813</v>
+        <v>0.9996988401621347</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8011619967438606</v>
+        <v>0.8079334165119747</v>
       </c>
       <c r="E14" t="n">
-        <v>0.484277252077201</v>
+        <v>0.5466410334254462</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7371650064267353</v>
+        <v>0.7093195694087404</v>
       </c>
       <c r="G14" t="n">
-        <v>0.715198700253048</v>
+        <v>0.7141059926386014</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6416665110183786</v>
+        <v>0.6472850522478726</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7474399713272946</v>
+        <v>0.7307388890864034</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8722801182061635</v>
+        <v>0.8676406157092592</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8514040325128043</v>
+        <v>0.8524916236095756</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9017100289897618</v>
+        <v>0.8494619463505927</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7388560360649266</v>
+        <v>0.7093229904963527</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6030168440550973</v>
+        <v>0.6148424961519008</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9996466916431528</v>
+        <v>0.999664816607331</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7913507843644443</v>
+        <v>0.8033335488877393</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5453793002777365</v>
+        <v>0.4941855454297696</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7401478149100258</v>
+        <v>0.7149606362467866</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7114789114619278</v>
+        <v>0.7075767051989877</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6628497362738842</v>
+        <v>0.667508760102841</v>
       </c>
       <c r="I15" t="n">
-        <v>0.719091082923117</v>
+        <v>0.7583430942884238</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8815322988058674</v>
+        <v>0.8779110056018276</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8545941822161052</v>
+        <v>0.8626081597888133</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8669980000733919</v>
+        <v>0.8492968147957873</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7052875976029114</v>
+        <v>0.7339186367181786</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6060553644582336</v>
+        <v>0.5853155879216762</v>
       </c>
       <c r="C16" t="n">
-        <v>0.999648860930204</v>
+        <v>0.9997236157037201</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7991701789355163</v>
+        <v>0.8036373855025715</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5409317879884558</v>
+        <v>0.5369912983117622</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7311696658097686</v>
+        <v>0.702538560411311</v>
       </c>
       <c r="G16" t="n">
-        <v>0.721196910225443</v>
+        <v>0.7083978084742352</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6837019736347727</v>
+        <v>0.6517099520936288</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7385277949401899</v>
+        <v>0.7281051127546456</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8700365556881874</v>
+        <v>0.8848704456276981</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8472690710949662</v>
+        <v>0.8492006469844994</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8484298741330595</v>
+        <v>0.8659246449671572</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7230396212083948</v>
+        <v>0.7078246504565291</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6075431501645432</v>
+        <v>0.628821551106917</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9996586227219346</v>
+        <v>0.9996479190029318</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7950938232250997</v>
+        <v>0.8045950176501019</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5436509199781662</v>
+        <v>0.5407035113451163</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7277401992287917</v>
+        <v>0.7250072300771209</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7137339688290776</v>
+        <v>0.7074365223142397</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6649668425709507</v>
+        <v>0.6351618604647122</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7463378401881022</v>
+        <v>0.7457517024418883</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8849401145401627</v>
+        <v>0.8762519913387012</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8605274587667244</v>
+        <v>0.8587531164684912</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8684555153939306</v>
+        <v>0.845864601299035</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7226285439047808</v>
+        <v>0.7014888855812479</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6201455380660756</v>
+        <v>0.6032281337102244</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9996718953334982</v>
+        <v>0.9996540843450774</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8110440567846383</v>
+        <v>0.8071636019902013</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5612095866872788</v>
+        <v>0.5546943849380896</v>
       </c>
       <c r="F18" t="n">
-        <v>0.76115279562982</v>
+        <v>0.709203084832905</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7235422777202668</v>
+        <v>0.70779506700023</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6619688393575013</v>
+        <v>0.6589612800631048</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7381309508595566</v>
+        <v>0.7243855402700653</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8804362242578958</v>
+        <v>0.8889414199940092</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8503277227499381</v>
+        <v>0.8466034723945759</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8474046823969763</v>
+        <v>0.8479746156104363</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7142645421390967</v>
+        <v>0.7181434254142234</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6231271306864834</v>
+        <v>0.6209299372261718</v>
       </c>
       <c r="C19" t="n">
-        <v>0.999714253517499</v>
+        <v>0.9996680419946571</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7971213026079547</v>
+        <v>0.7981535863181278</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5422144853176967</v>
+        <v>0.5483406850318072</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7390351863753213</v>
+        <v>0.7130302056555269</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7277823606797792</v>
+        <v>0.7168148471647113</v>
       </c>
       <c r="H19" t="n">
-        <v>0.651652615607947</v>
+        <v>0.6640898549604096</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7358017739795197</v>
+        <v>0.7278216526970503</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8829342459588306</v>
+        <v>0.879739162572221</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8490462337266759</v>
+        <v>0.8491015827711468</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8665106326373344</v>
+        <v>0.8496935892260835</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7231181954249364</v>
+        <v>0.7301748627666174</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6018826674607363</v>
+        <v>0.5917139422708493</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9997489906535697</v>
+        <v>0.9996434377125759</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7999628168649767</v>
+        <v>0.8078449758071878</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5525374035938818</v>
+        <v>0.523408061581895</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7153478470437018</v>
+        <v>0.6998521850899744</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7123676350069014</v>
+        <v>0.7130177780653324</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6452131201516463</v>
+        <v>0.6790859521700774</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7482874688554267</v>
+        <v>0.7453221883885152</v>
       </c>
       <c r="J20" t="n">
-        <v>0.879264892382021</v>
+        <v>0.8810855981318301</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8444811714537127</v>
+        <v>0.8519423636650798</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8471535448240433</v>
+        <v>0.8961448662434406</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7295989712526966</v>
+        <v>0.7222462132657552</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5968899914389373</v>
+        <v>0.6161994574344399</v>
       </c>
       <c r="C21" t="n">
-        <v>0.999662618777029</v>
+        <v>0.999683655152776</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8160404811174341</v>
+        <v>0.8057856387511031</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5726257482077566</v>
+        <v>0.5151411859981009</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7386479755784061</v>
+        <v>0.7159857005141388</v>
       </c>
       <c r="G21" t="n">
-        <v>0.721231506642512</v>
+        <v>0.710287356941569</v>
       </c>
       <c r="H21" t="n">
-        <v>0.652345865843917</v>
+        <v>0.6547427046923399</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7373007491993455</v>
+        <v>0.7327240703711212</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8936211590820692</v>
+        <v>0.8790998478460756</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8589639363958395</v>
+        <v>0.8448865943909208</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8673053282448351</v>
+        <v>0.8677387985761991</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7207941872966572</v>
+        <v>0.7382453291461155</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/Meta_BBoxes/metrics.xlsx
+++ b/models/Random Forests/Meta_BBoxes/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6129293942227058</v>
+        <v>0.6073882409096184</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9996587083516868</v>
+        <v>0.9996992968541456</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8170599266607833</v>
+        <v>0.8120463847722224</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5446867058360398</v>
+        <v>0.5179604801884602</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7451727185089975</v>
+        <v>0.745758354755784</v>
       </c>
       <c r="G2" t="n">
-        <v>0.711879241430872</v>
+        <v>0.7210935702783527</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6501605638782746</v>
+        <v>0.6685034612559557</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7067168503071459</v>
+        <v>0.7375851701384918</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8851286304209494</v>
+        <v>0.8760269644770509</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8571938245978203</v>
+        <v>0.8483591299835292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8666608564823309</v>
+        <v>0.8438772889068291</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7359104611667696</v>
+        <v>0.7275429459198581</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.611832987022655</v>
+        <v>0.6052851972438196</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9996659297941072</v>
+        <v>0.9997328637169386</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8068483536715256</v>
+        <v>0.8046568310459208</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5343373882201488</v>
+        <v>0.5204117365252723</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7172035668380463</v>
+        <v>0.7154426413881748</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7212804807913503</v>
+        <v>0.7328819624166091</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6319736043669553</v>
+        <v>0.6580486743326707</v>
       </c>
       <c r="I3" t="n">
-        <v>0.749411700270296</v>
+        <v>0.7566404121797502</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8852329475091315</v>
+        <v>0.882435386740702</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8595745385934433</v>
+        <v>0.8565469106067102</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8483645095592823</v>
+        <v>0.8474757807052953</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7215125345039827</v>
+        <v>0.7359225986473735</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6036797242943691</v>
+        <v>0.6003187955832799</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996396700034869</v>
+        <v>0.9996526000960423</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8137010818295243</v>
+        <v>0.8043230387084995</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5336789576298362</v>
+        <v>0.55448396667161</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7284648136246786</v>
+        <v>0.7410065874035989</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7076229835231194</v>
+        <v>0.732277199074074</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6486997865953377</v>
+        <v>0.6468706658286273</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7464704418421637</v>
+        <v>0.729675193209258</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8858070640551629</v>
+        <v>0.8760049833763268</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8495694055865165</v>
+        <v>0.8525815217391304</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8683947378077869</v>
+        <v>0.831045191002165</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7372813576602516</v>
+        <v>0.7219258476592869</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5896820583334611</v>
+        <v>0.6134154699060034</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9996521434040316</v>
+        <v>0.9996902201004312</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8016645872006329</v>
+        <v>0.8102067230151242</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5396560787197252</v>
+        <v>0.580200805801022</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7007583547557841</v>
+        <v>0.7262194730077121</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7090526692259028</v>
+        <v>0.7190752961812744</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6530312974682032</v>
+        <v>0.6786450693445703</v>
       </c>
       <c r="I5" t="n">
-        <v>0.743967345401365</v>
+        <v>0.7599295097294061</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8814149420816625</v>
+        <v>0.8763596614761464</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8504588682565827</v>
+        <v>0.8464603404706571</v>
       </c>
       <c r="L5" t="n">
-        <v>0.849150031191516</v>
+        <v>0.8495364848996367</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7171085454890415</v>
+        <v>0.7204239941382358</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6322640398144154</v>
+        <v>0.5915305691245603</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9997149956420165</v>
+        <v>0.9996948155637898</v>
       </c>
       <c r="D6" t="n">
-        <v>0.817210180761389</v>
+        <v>0.8092937867076474</v>
       </c>
       <c r="E6" t="n">
-        <v>0.547641878980768</v>
+        <v>0.5170893019781647</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7038367609254499</v>
+        <v>0.7057085475578406</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7112928995571658</v>
+        <v>0.720903514636531</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6678080391834068</v>
+        <v>0.6673467410940583</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7428719404330308</v>
+        <v>0.7192313716295878</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8750445210429921</v>
+        <v>0.8926487747957992</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8467458992351254</v>
+        <v>0.8547440124320299</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8671883600601813</v>
+        <v>0.8676046291879197</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7140812023004998</v>
+        <v>0.7151544111117996</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6235102984548485</v>
+        <v>0.6012017235980986</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996933884012561</v>
+        <v>0.9996659583373581</v>
       </c>
       <c r="D7" t="n">
-        <v>0.805452321901342</v>
+        <v>0.7944362237911202</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5499828792517496</v>
+        <v>0.5537898193275778</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7212082262210796</v>
+        <v>0.7088753213367609</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7084438621463077</v>
+        <v>0.7070847171900161</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6661322500791634</v>
+        <v>0.6761083642204693</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7507242644691946</v>
+        <v>0.7318025849635491</v>
       </c>
       <c r="J7" t="n">
-        <v>0.87790988791874</v>
+        <v>0.8799027168640494</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8509383249475418</v>
+        <v>0.8433428143543693</v>
       </c>
       <c r="L7" t="n">
-        <v>0.848849583501523</v>
+        <v>0.8663535283108876</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7442476327121712</v>
+        <v>0.7145139993062471</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6264114258438997</v>
+        <v>0.6176899800533808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996470056189102</v>
+        <v>0.9996201464200257</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8016698175648944</v>
+        <v>0.7911933979489365</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5169099417583979</v>
+        <v>0.5129803223980539</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6876124678663239</v>
+        <v>0.7166002570694088</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7296622491085806</v>
+        <v>0.7198206917126754</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6651410238645747</v>
+        <v>0.6730947237836521</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7456882842595109</v>
+        <v>0.7342374588142145</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8824428379612863</v>
+        <v>0.8814447469640001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8552449741657454</v>
+        <v>0.8454711085038694</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8484608362995854</v>
+        <v>0.8676011889471946</v>
       </c>
       <c r="M8" t="n">
-        <v>0.73193735271327</v>
+        <v>0.7423874041059181</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6138440704240462</v>
+        <v>0.5983164703023085</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9996917899792183</v>
+        <v>0.9996751207208244</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8098310877636103</v>
+        <v>0.8052611758619639</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5488647895700867</v>
+        <v>0.55814415747672</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6769191838046273</v>
+        <v>0.7421850899742931</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7147493961352658</v>
+        <v>0.7360419182769727</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6622116506870172</v>
+        <v>0.6750923790688814</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7530755416249084</v>
+        <v>0.7301056681441822</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8718065931380219</v>
+        <v>0.8819450964262456</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8454950813384174</v>
+        <v>0.8543410572866136</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8695403379692488</v>
+        <v>0.849778448497303</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7062509302740069</v>
+        <v>0.7242996833395191</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6242470753351623</v>
+        <v>0.6107201583468171</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9996456926293792</v>
+        <v>0.9996549691858483</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8032265641642067</v>
+        <v>0.8060614215939869</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5537556554761937</v>
+        <v>0.5457155036334033</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7490207262210796</v>
+        <v>0.6886278920308483</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7236236017655855</v>
+        <v>0.7239767548021624</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6604885155453548</v>
+        <v>0.6687675565839443</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7350263425677253</v>
+        <v>0.7432534104088454</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8840523016075262</v>
+        <v>0.8836398765481774</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8450332517316846</v>
+        <v>0.8619407983800005</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8632722193680965</v>
+        <v>0.8652480642912187</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7168983754301619</v>
+        <v>0.7214215033994529</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6090145143950656</v>
+        <v>0.6220509766399034</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9996186336277398</v>
+        <v>0.9996611916144953</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8087436474848605</v>
+        <v>0.8026279252000852</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5516910718209566</v>
+        <v>0.5181771100642824</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7259905205655527</v>
+        <v>0.7436945694087405</v>
       </c>
       <c r="G11" t="n">
-        <v>0.716526393921095</v>
+        <v>0.7207085166494134</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6495659150229846</v>
+        <v>0.6545867668259781</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7363302588326635</v>
+        <v>0.7236716052775458</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8789877069762797</v>
+        <v>0.8710339015634152</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8543664402878998</v>
+        <v>0.8531558121432279</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8661723422993651</v>
+        <v>0.867450965102198</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7171366533388612</v>
+        <v>0.7245152833239321</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6045122931167743</v>
+        <v>0.6351509352577843</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9996334475748399</v>
+        <v>0.9997293528971057</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8068645202519705</v>
+        <v>0.7983675557651928</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5396079387473203</v>
+        <v>0.5443070212149752</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6856675771208227</v>
+        <v>0.7219633676092545</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7199020157579941</v>
+        <v>0.7229330213365539</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6832041886908994</v>
+        <v>0.66639243610131</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7348841320981522</v>
+        <v>0.7132489230920015</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8798561467353967</v>
+        <v>0.8760534163101257</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8580688330588209</v>
+        <v>0.8480221001331197</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8646425819235992</v>
+        <v>0.8656517192029651</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7245012293990223</v>
+        <v>0.736885931318469</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6030557082144602</v>
+        <v>0.6074506425176094</v>
       </c>
       <c r="C13" t="n">
-        <v>0.999698297840372</v>
+        <v>0.9996730941500266</v>
       </c>
       <c r="D13" t="n">
-        <v>0.805781834849822</v>
+        <v>0.8031038883478895</v>
       </c>
       <c r="E13" t="n">
-        <v>0.554570929202406</v>
+        <v>0.5649132587577869</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7059583868894601</v>
+        <v>0.7342079048843188</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7225277490223142</v>
+        <v>0.7078130391649412</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6467464367763169</v>
+        <v>0.6519280044861457</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7279725111005841</v>
+        <v>0.7457718809544628</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8758906071403556</v>
+        <v>0.8792425387202677</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8400899122312223</v>
+        <v>0.8551388591187021</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8635371179039301</v>
+        <v>0.8314947157902463</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7315342605942639</v>
+        <v>0.7266664920572965</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6266336631495515</v>
+        <v>0.6235518995268425</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9996988401621347</v>
+        <v>0.9997175930778278</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8079334165119747</v>
+        <v>0.8015447643102767</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5466410334254462</v>
+        <v>0.514497507979977</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7093195694087404</v>
+        <v>0.7337355398457583</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7141059926386014</v>
+        <v>0.7107106014205198</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6472850522478726</v>
+        <v>0.6618315792857177</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7307388890864034</v>
+        <v>0.7247103182343608</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8676406157092592</v>
+        <v>0.8822315958577175</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8524916236095756</v>
+        <v>0.8653463510525484</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8494619463505927</v>
+        <v>0.8483427213680232</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7093229904963527</v>
+        <v>0.7169635345365624</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6148424961519008</v>
+        <v>0.6103889919184443</v>
       </c>
       <c r="C15" t="n">
-        <v>0.999664816607331</v>
+        <v>0.9996735508420374</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8033335488877393</v>
+        <v>0.8069106425550044</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4941855454297696</v>
+        <v>0.5444607585462038</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7149606362467866</v>
+        <v>0.7406041131105399</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7075767051989877</v>
+        <v>0.7004260301644811</v>
       </c>
       <c r="H15" t="n">
-        <v>0.667508760102841</v>
+        <v>0.6595090172482917</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7583430942884238</v>
+        <v>0.7386046654642836</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8779110056018276</v>
+        <v>0.878503377638291</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8626081597888133</v>
+        <v>0.8419887017440942</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8492968147957873</v>
+        <v>0.8310967946130418</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7339186367181786</v>
+        <v>0.7305555963687214</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5853155879216762</v>
+        <v>0.6013358323170264</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9997236157037201</v>
+        <v>0.9996465489268994</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8036373855025715</v>
+        <v>0.8008025280727916</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5369912983117622</v>
+        <v>0.5701737154197767</v>
       </c>
       <c r="F16" t="n">
-        <v>0.702538560411311</v>
+        <v>0.7306820372750642</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7083978084742352</v>
+        <v>0.7257937406544743</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6517099520936288</v>
+        <v>0.6743874009153856</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7281051127546456</v>
+        <v>0.7364186599353711</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8848704456276981</v>
+        <v>0.8856673536692045</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8492006469844994</v>
+        <v>0.8457626604769748</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8659246449671572</v>
+        <v>0.8447556970386408</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7078246504565291</v>
+        <v>0.7138288704668906</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.628821551106917</v>
+        <v>0.6070340844151436</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9996479190029318</v>
+        <v>0.9996480902624357</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8045950176501019</v>
+        <v>0.8045864588722192</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5407035113451163</v>
+        <v>0.5415537253738807</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7250072300771209</v>
+        <v>0.7296392994858611</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7074365223142397</v>
+        <v>0.7011435688405797</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6351618604647122</v>
+        <v>0.6692579572834494</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7457517024418883</v>
+        <v>0.73392997671784</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8762519913387012</v>
+        <v>0.8773938908932672</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8587531164684912</v>
+        <v>0.8515728999796935</v>
       </c>
       <c r="L17" t="n">
-        <v>0.845864601299035</v>
+        <v>0.8492945213019706</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7014888855812479</v>
+        <v>0.7233944828123693</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6032281337102244</v>
+        <v>0.598943770677375</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9996540843450774</v>
+        <v>0.9997126836387118</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8071636019902013</v>
+        <v>0.802415857703661</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5546943849380896</v>
+        <v>0.5545336595463506</v>
       </c>
       <c r="F18" t="n">
-        <v>0.709203084832905</v>
+        <v>0.7066749678663239</v>
       </c>
       <c r="G18" t="n">
-        <v>0.70779506700023</v>
+        <v>0.7185837574764206</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6589612800631048</v>
+        <v>0.6562582122570638</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7243855402700653</v>
+        <v>0.7467212319270191</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8889414199940092</v>
+        <v>0.8874847063697504</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8466034723945759</v>
+        <v>0.8515972253559261</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8479746156104363</v>
+        <v>0.8485995926754982</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7181434254142234</v>
+        <v>0.7187554099625718</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6209299372261718</v>
+        <v>0.5988266308167605</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9996680419946571</v>
+        <v>0.9997405418513702</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7981535863181278</v>
+        <v>0.7946107277623932</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5483406850318072</v>
+        <v>0.5510318647794762</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7130302056555269</v>
+        <v>0.6732029241645244</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7168148471647113</v>
+        <v>0.7254715896020243</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6640898549604096</v>
+        <v>0.6783357998157414</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7278216526970503</v>
+        <v>0.7258191755444114</v>
       </c>
       <c r="J19" t="n">
-        <v>0.879739162572221</v>
+        <v>0.8803244559491289</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8491015827711468</v>
+        <v>0.8569079132916676</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8496935892260835</v>
+        <v>0.8498885362005065</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7301748627666174</v>
+        <v>0.7436931414929996</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5917139422708493</v>
+        <v>0.6219404053696036</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9996434377125759</v>
+        <v>0.9996784888244039</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8078449758071878</v>
+        <v>0.8048898199993914</v>
       </c>
       <c r="E20" t="n">
-        <v>0.523408061581895</v>
+        <v>0.5305048252557825</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6998521850899744</v>
+        <v>0.7238303341902315</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7130177780653324</v>
+        <v>0.7174977894237404</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6790859521700774</v>
+        <v>0.650277408686217</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7453221883885152</v>
+        <v>0.7137697208927358</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8810855981318301</v>
+        <v>0.8741250404228716</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8519423636650798</v>
+        <v>0.8558464102795514</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8961448662434406</v>
+        <v>0.8832623114748083</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7222462132657552</v>
+        <v>0.71912017319546</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6161994574344399</v>
+        <v>0.5928076125582689</v>
       </c>
       <c r="C21" t="n">
-        <v>0.999683655152776</v>
+        <v>0.999637643432689</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8057856387511031</v>
+        <v>0.8035812779586744</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5151411859981009</v>
+        <v>0.5204451239254886</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7159857005141388</v>
+        <v>0.7202699228791773</v>
       </c>
       <c r="G21" t="n">
-        <v>0.710287356941569</v>
+        <v>0.7136342233149299</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6547427046923399</v>
+        <v>0.6423719235391903</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7327240703711212</v>
+        <v>0.7399364472942056</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8790998478460756</v>
+        <v>0.8830743289058181</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8448865943909208</v>
+        <v>0.8620204728007039</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8677387985761991</v>
+        <v>0.8488966001247661</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7382453291461155</v>
+        <v>0.7137004686983957</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/Meta_BBoxes/metrics.xlsx
+++ b/models/Random Forests/Meta_BBoxes/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6073882409096184</v>
+        <v>0.7122109755583945</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9996992968541456</v>
+        <v>0.9992362373441056</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8120463847722224</v>
+        <v>0.8352818402292937</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5179604801884602</v>
+        <v>0.8280331880360975</v>
       </c>
       <c r="F2" t="n">
-        <v>0.745758354755784</v>
+        <v>0.8627992448586118</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7210935702783527</v>
+        <v>0.9334746339964326</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6685034612559557</v>
+        <v>0.9017546938540469</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7375851701384918</v>
+        <v>0.7711407884151247</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8760269644770509</v>
+        <v>0.9003998754282154</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8483591299835292</v>
+        <v>0.9117952158084013</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8438772889068291</v>
+        <v>0.8898527759948653</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7275429459198581</v>
+        <v>0.9165718890295843</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6052851972438196</v>
+        <v>0.7873222332973003</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9997328637169386</v>
+        <v>0.9983299635199182</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8046568310459208</v>
+        <v>0.847657823179246</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5204117365252723</v>
+        <v>0.8885904436328119</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7154426413881748</v>
+        <v>0.8740460314910026</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7328819624166091</v>
+        <v>0.92733629241</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6580486743326707</v>
+        <v>0.8979924810586845</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7566404121797502</v>
+        <v>0.9315076427996782</v>
       </c>
       <c r="J3" t="n">
-        <v>0.882435386740702</v>
+        <v>0.9321432575521644</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8565469106067102</v>
+        <v>0.8475291704289434</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8474757807052953</v>
+        <v>0.8632561777920411</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7359225986473735</v>
+        <v>0.9322113502935421</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6003187955832799</v>
+        <v>0.7758519399046968</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996526000960423</v>
+        <v>0.9986755661217104</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8043230387084995</v>
+        <v>0.8749996325420739</v>
       </c>
       <c r="E4" t="n">
-        <v>0.55448396667161</v>
+        <v>0.7982593025128866</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7410065874035989</v>
+        <v>0.8917095115681234</v>
       </c>
       <c r="G4" t="n">
-        <v>0.732277199074074</v>
+        <v>0.9119357874026974</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6468706658286273</v>
+        <v>0.9091909385113268</v>
       </c>
       <c r="I4" t="n">
-        <v>0.729675193209258</v>
+        <v>0.7957586484312148</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8760049833763268</v>
+        <v>0.9061509163549979</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8525815217391304</v>
+        <v>0.8805962952897757</v>
       </c>
       <c r="L4" t="n">
-        <v>0.831045191002165</v>
+        <v>0.993687476595517</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7219258476592869</v>
+        <v>0.8969863013698629</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6134154699060034</v>
+        <v>0.7564580463185958</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9996902201004312</v>
+        <v>0.9981659281313228</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8102067230151242</v>
+        <v>0.8756814821659581</v>
       </c>
       <c r="E5" t="n">
-        <v>0.580200805801022</v>
+        <v>0.8750251691365979</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7262194730077121</v>
+        <v>0.7838156732005142</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7190752961812744</v>
+        <v>0.9326270449008005</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6786450693445703</v>
+        <v>0.8741316073354909</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7599295097294061</v>
+        <v>0.8564891391794047</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8763596614761464</v>
+        <v>0.9134125511676532</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8464603404706571</v>
+        <v>0.8935158804604151</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8495364848996367</v>
+        <v>0.9856274184632393</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7204239941382358</v>
+        <v>0.9159203407390353</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5915305691245603</v>
+        <v>0.709335224201237</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9996948155637898</v>
+        <v>0.9984259435120696</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8092937867076474</v>
+        <v>0.8306627072797836</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5170893019781647</v>
+        <v>0.7987664200199535</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7057085475578406</v>
+        <v>0.8635204081632654</v>
       </c>
       <c r="G6" t="n">
-        <v>0.720903514636531</v>
+        <v>0.9219552074223354</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6673467410940583</v>
+        <v>0.89238659426252</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7192313716295878</v>
+        <v>0.8425490827164467</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8926487747957992</v>
+        <v>0.9294186539084498</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8547440124320299</v>
+        <v>0.9220537725663048</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8676046291879197</v>
+        <v>0.9975124378109452</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7151544111117996</v>
+        <v>0.8747029566178502</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6012017235980986</v>
+        <v>0.7775090901433365</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996659583373581</v>
+        <v>0.9984061662030859</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7944362237911202</v>
+        <v>0.8313221136179907</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5537898193275778</v>
+        <v>0.8385434255165498</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7088753213367609</v>
+        <v>0.8556193766066837</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7070847171900161</v>
+        <v>0.9217286203542654</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6761083642204693</v>
+        <v>0.8911864955207182</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7318025849635491</v>
+        <v>0.8710667739340305</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8799027168640494</v>
+        <v>0.9074182497664278</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8433428143543693</v>
+        <v>0.8680560028965484</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8663535283108876</v>
+        <v>0.969983552631579</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7145139993062471</v>
+        <v>0.9097087602164153</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6176899800533808</v>
+        <v>0.7369473964987154</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996201464200257</v>
+        <v>0.998723127705282</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7911933979489365</v>
+        <v>0.8327213934004557</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5129803223980539</v>
+        <v>0.8296541440884461</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7166002570694088</v>
+        <v>0.8160748714652956</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7198206917126754</v>
+        <v>0.9464641568373997</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6730947237836521</v>
+        <v>0.8983215375713985</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7342374588142145</v>
+        <v>0.8403218020917136</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8814447469640001</v>
+        <v>0.9293154780442231</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8454711085038694</v>
+        <v>0.909058831780207</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8676011889471946</v>
+        <v>0.9654204107830552</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7423874041059181</v>
+        <v>0.8797927938298608</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5983164703023085</v>
+        <v>0.7188898928440139</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9996751207208244</v>
+        <v>0.9991251445941574</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8052611758619639</v>
+        <v>0.850103623135151</v>
       </c>
       <c r="E9" t="n">
-        <v>0.55814415747672</v>
+        <v>0.7946953527706184</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7421850899742931</v>
+        <v>0.8459290649100257</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7360419182769727</v>
+        <v>0.9116839173866348</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6750923790688814</v>
+        <v>0.8875728155339805</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7301056681441822</v>
+        <v>0.8607691069991954</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8819450964262456</v>
+        <v>0.9229491219287139</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8543410572866136</v>
+        <v>0.9323381928798731</v>
       </c>
       <c r="L9" t="n">
-        <v>0.849778448497303</v>
+        <v>0.9779061680843096</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7242996833395191</v>
+        <v>0.9637274087717278</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6107201583468171</v>
+        <v>0.807600207509508</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9996549691858483</v>
+        <v>0.9982799717824414</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8060614215939869</v>
+        <v>0.8594587414525966</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5457155036334033</v>
+        <v>0.799890262564433</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6886278920308483</v>
+        <v>0.8768527072622108</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7239767548021624</v>
+        <v>0.9257589130326688</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6687675565839443</v>
+        <v>0.8879153182308521</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7432534104088454</v>
+        <v>0.8078197908286404</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8836398765481774</v>
+        <v>0.9119818201450856</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8619407983800005</v>
+        <v>0.8824942360459714</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8652480642912187</v>
+        <v>0.9980384814279855</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7214215033994529</v>
+        <v>0.886692759295499</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6220509766399034</v>
+        <v>0.7185742668791553</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9996611916144953</v>
+        <v>0.9986318753222032</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8026279252000852</v>
+        <v>0.8592408561684112</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5181771100642824</v>
+        <v>0.8245500083139341</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7436945694087405</v>
+        <v>0.8734131447854733</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7207085166494134</v>
+        <v>0.9255469155988187</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6545867668259781</v>
+        <v>0.9035626131314793</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7236716052775458</v>
+        <v>0.8505374959768265</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8710339015634152</v>
+        <v>0.9089581620193866</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8531558121432279</v>
+        <v>0.8842081409763662</v>
       </c>
       <c r="L11" t="n">
-        <v>0.867450965102198</v>
+        <v>0.9824967902423366</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7245152833239321</v>
+        <v>0.9002463848208528</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6351509352577843</v>
+        <v>0.7350451348429756</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9997293528971057</v>
+        <v>0.99847525200696</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7983675557651928</v>
+        <v>0.8704754905563312</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5443070212149752</v>
+        <v>0.8829950280290317</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7219633676092545</v>
+        <v>0.8620862789203084</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7229330213365539</v>
+        <v>0.905737250466514</v>
       </c>
       <c r="H12" t="n">
-        <v>0.66639243610131</v>
+        <v>0.9006276752980018</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7132489230920015</v>
+        <v>0.8215543041029767</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8760534163101257</v>
+        <v>0.9252046091560262</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8480221001331197</v>
+        <v>0.9134100859413005</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8656517192029651</v>
+        <v>0.9909740051347882</v>
       </c>
       <c r="M12" t="n">
-        <v>0.736885931318469</v>
+        <v>0.8974099228732589</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6074506425176094</v>
+        <v>0.7567632070306468</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9996730941500266</v>
+        <v>0.9991334765504034</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8031038883478895</v>
+        <v>0.8759756007937092</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5649132587577869</v>
+        <v>0.7952088279760389</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7342079048843188</v>
+        <v>0.8191476542416453</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7078130391649412</v>
+        <v>0.9246322539356669</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6519280044861457</v>
+        <v>0.9045736113129629</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7457718809544628</v>
+        <v>0.7963893805309735</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8792425387202677</v>
+        <v>0.9154780442229835</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8551388591187021</v>
+        <v>0.9165716965749401</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8314947157902463</v>
+        <v>0.9959683889602053</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7266664920572965</v>
+        <v>0.8896281800391389</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6235518995268425</v>
+        <v>0.7428290691961755</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9997175930778278</v>
+        <v>0.9991070920222908</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8015447643102767</v>
+        <v>0.8674829132064379</v>
       </c>
       <c r="E14" t="n">
-        <v>0.514497507979977</v>
+        <v>0.7929284793814433</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7337355398457583</v>
+        <v>0.9028458386889461</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7107106014205198</v>
+        <v>0.9368851757862622</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6618315792857177</v>
+        <v>0.8929584681769148</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7247103182343608</v>
+        <v>0.8496991150442478</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8822315958577175</v>
+        <v>0.9083865869580154</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8653463510525484</v>
+        <v>0.867847656284244</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8483427213680232</v>
+        <v>0.9828367124948734</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7169635345365624</v>
+        <v>0.8302037527339703</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6103889919184443</v>
+        <v>0.7416472269652421</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9996735508420374</v>
+        <v>0.9987220862107513</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8069106425550044</v>
+        <v>0.8600997967104047</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5444607585462038</v>
+        <v>0.7968045264175257</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7406041131105399</v>
+        <v>0.669595517352185</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7004260301644811</v>
+        <v>0.9068715503953061</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6595090172482917</v>
+        <v>0.8784223300970874</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7386046654642836</v>
+        <v>0.8073499597747384</v>
       </c>
       <c r="J15" t="n">
-        <v>0.878503377638291</v>
+        <v>0.914627322790588</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8419887017440942</v>
+        <v>0.888933208265028</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8310967946130418</v>
+        <v>0.9095294138625867</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7305555963687214</v>
+        <v>0.914142972257396</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6013358323170264</v>
+        <v>0.7989314724197727</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9996465489268994</v>
+        <v>0.9976128259340503</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8008025280727916</v>
+        <v>0.8298394684229096</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5701737154197767</v>
+        <v>0.8449763052876621</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7306820372750642</v>
+        <v>0.8137855535915153</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7257937406544743</v>
+        <v>0.936746644359101</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6743874009153856</v>
+        <v>0.9094591629641818</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7364186599353711</v>
+        <v>0.8883360154489862</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8856673536692045</v>
+        <v>0.9189803393885027</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8457626604769748</v>
+        <v>0.8887358426012735</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8447556970386408</v>
+        <v>0.9569290643556412</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7138288704668906</v>
+        <v>0.963574191765681</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6070340844151436</v>
+        <v>0.7529727225505749</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9996480902624357</v>
+        <v>0.9987134070896616</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8045864588722192</v>
+        <v>0.8321422797089733</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5415537253738807</v>
+        <v>0.7816125395497691</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7296392994858611</v>
+        <v>0.8367207583547558</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7011435688405797</v>
+        <v>0.9422631550600526</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6692579572834494</v>
+        <v>0.9142204514106926</v>
       </c>
       <c r="I17" t="n">
-        <v>0.73392997671784</v>
+        <v>0.8159356395816573</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8773938908932672</v>
+        <v>0.8909648084708814</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8515728999796935</v>
+        <v>0.9150138496771372</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8492945213019706</v>
+        <v>0.9476091142490373</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7233944828123693</v>
+        <v>0.901682974559687</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.598943770677375</v>
+        <v>0.7417802642108071</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9997126836387118</v>
+        <v>0.9985984955264338</v>
       </c>
       <c r="D18" t="n">
-        <v>0.802415857703661</v>
+        <v>0.8444330124200778</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5545336595463506</v>
+        <v>0.8645566529335668</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7066749678663239</v>
+        <v>0.864797557840617</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7185837574764206</v>
+        <v>0.928608315195524</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6562582122570638</v>
+        <v>0.9222823359721838</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7467212319270191</v>
+        <v>0.8799935639581657</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8874847063697504</v>
+        <v>0.9085668016194333</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8515972253559261</v>
+        <v>0.8847910511874185</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8485995926754982</v>
+        <v>0.9894897304236199</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7187554099625718</v>
+        <v>0.9160884079659262</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5988266308167605</v>
+        <v>0.7598317936173649</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9997405418513702</v>
+        <v>0.998887683841143</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7946107277623932</v>
+        <v>0.8262453149114426</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5510318647794762</v>
+        <v>0.7768151981314433</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6732029241645244</v>
+        <v>0.8413600578406171</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7254715896020243</v>
+        <v>0.9555663273549847</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6783357998157414</v>
+        <v>0.918077130528587</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7258191755444114</v>
+        <v>0.8762284794851167</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8803244559491289</v>
+        <v>0.9118713863611823</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8569079132916676</v>
+        <v>0.8792309175864154</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8498885362005065</v>
+        <v>0.9899427593216712</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7436931414929996</v>
+        <v>0.9014895821342235</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6219404053696036</v>
+        <v>0.8007359029240289</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9996784888244039</v>
+        <v>0.997890799992779</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8048898199993914</v>
+        <v>0.8545035575679172</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5305048252557825</v>
+        <v>0.8172317976804124</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7238303341902315</v>
+        <v>0.7570292416452442</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7174977894237404</v>
+        <v>0.8767527721147631</v>
       </c>
       <c r="H20" t="n">
-        <v>0.650277408686217</v>
+        <v>0.8848004314994606</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7137697208927358</v>
+        <v>0.8545261464199518</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8741250404228716</v>
+        <v>0.9359361349157267</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8558464102795514</v>
+        <v>0.9102160058209361</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8832623114748083</v>
+        <v>0.9643716899374097</v>
       </c>
       <c r="M20" t="n">
-        <v>0.71912017319546</v>
+        <v>0.8720110509957407</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,1270 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5928076125582689</v>
+        <v>0.7183180168352769</v>
       </c>
       <c r="C21" t="n">
-        <v>0.999637643432689</v>
+        <v>0.9987327540805457</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8035812779586744</v>
+        <v>0.8748088909796543</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5204451239254886</v>
+        <v>0.8893623212504158</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7202699228791773</v>
+        <v>0.7964657319620763</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7136342233149299</v>
+        <v>0.9144929464998669</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6423719235391903</v>
+        <v>0.8552739838736219</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7399364472942056</v>
+        <v>0.802806565819118</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8830743289058181</v>
+        <v>0.9413869577134882</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8620204728007039</v>
+        <v>0.8671837162699558</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8488966001247661</v>
+        <v>0.9862582250040122</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7137004686983957</v>
+        <v>0.9288063000828958</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7977214976625345</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9984238716101089</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8435187771000221</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8206193922453877</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8858651992287918</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9013873444029413</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8902706215603312</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.7467160096540628</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9117109934599813</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9075969977187459</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.9696726572528883</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8817704616093013</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7743679016158694</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9989105967208197</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8776276916293085</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7928085661292921</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.917476703084833</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9464815818070644</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8698992812857334</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9051391794046661</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.9214948614138898</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9188290626013623</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.902108071245186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.9154069298952459</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7311927330445149</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9985832202733159</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.837374880576174</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7909451514175257</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8032314428020566</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8878053725933741</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8895199568500539</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.760946098149638</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9136334187354596</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9125719946349204</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.9298935430375006</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.9033682514101531</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.674783815632612</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9990314100863885</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8605733690630197</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8275561775128866</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8232246143958869</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9449617124956492</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9279180151024812</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8957940466613032</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9229196729196729</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.856161951766882</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.9797428627471958</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.9286220789685737</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.762733521016014</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.997806756650519</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8472950723274139</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.846763801130695</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.6869827655471638</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9166840944522606</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8973616367725303</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.908850981654329</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9164785328050634</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8686277820482627</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.9748435243139144</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.9143041355807313</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7508212716373489</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9990227309652988</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8629940471815978</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8670348453597535</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8245250241002571</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9291991800759729</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8847890884860384</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8649654062751408</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9039900342572406</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.8763036133552204</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.9939826700898589</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.9140669966616785</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7181844983223596</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9987668704755742</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8644873961931359</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7860286057180264</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9128574871465296</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9032834979200922</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8861327359129536</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8041319388576026</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9106596075988789</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8993696908066028</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.9733632862644415</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.9490618165074249</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7449694404458019</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9987550668708922</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8584993018299404</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8090367268041238</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.840857969151671</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9161985686179465</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.912653721682848</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.8657827835880934</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9335973927810662</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.8948856413987779</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.9764796091228446</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.9339104408886844</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7770921871296006</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9980242848751386</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8488235769728331</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8450990657216494</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.7976833627892032</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9364697802197802</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9114401294498382</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8795237329042639</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.9320096003769474</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9153772650366877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.9443820324898804</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8601128122481869</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7648712782313833</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9984708171666428</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8559537810184641</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8158463584968406</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.7968624457657079</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.9458819726985817</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8814244967363282</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.8473833279691021</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.8975305873265057</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8723601366752718</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.9752046220510352</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.9016441005802708</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8031159186309331</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9980836500633923</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8296053501874036</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.8502901615241143</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.8519491082904884</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9342730144247067</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8876436537338317</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.8218954143201931</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.9053229523512925</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9294166253878908</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9778562259306802</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.9041625417290204</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.7663622580056437</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9982025540223213</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8931520540898067</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8435621548324752</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.685797919344473</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9189580501775764</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9194168021739667</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7915398230088496</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.9270183743382124</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.8666532247459915</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.9881458600770219</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.9371221365258431</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.7199446183233644</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9988251941692969</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8797912838979937</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.8489247744845361</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8975437821336761</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.9257157702311818</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8962513484358144</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.8262139983909895</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9226129124088307</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9276086823118935</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.9750708821483978</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.8678300909404858</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7663834597057075</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9988970572919199</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.836230595084088</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7691839159149484</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.8279542898457584</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.936632937198548</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.9045253505933117</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.819526950925181</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9091399907726438</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8773833840327515</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.9344763637012072</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8813767698860365</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.751718279403815</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.999036086071148</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8431994590144655</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.8253606168939143</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.8664631206813435</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9166112146215952</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8727798804234544</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.8726424203411651</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.911063766165807</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.8821442377332166</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.9369382924089232</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.9450308556691536</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.748364476141006</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9988967101270761</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8639641361064158</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.8633565220101933</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8247308804627251</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9077965650632527</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9061119505099005</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.8006017699115044</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.923024602927437</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8804729548125129</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.932545731707317</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.9305260734430758</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.744970588648201</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9986519589123465</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8207922392886015</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.7465697556616566</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8459893155526992</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9602378033132789</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.8907450113661604</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.9216926790024136</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.9199177826222359</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.8992009362589967</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.996630295250321</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.8913387820881777</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7831972267934628</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9986516117475028</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.8688322187109576</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.8214199420103093</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7762441757712082</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.886978478578376</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.8868716289104639</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.8352566371681417</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.9368760491209471</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.911303048101621</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.927120669056153</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8642247035800622</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.7093046026570837</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.9987338898154332</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8938331639253373</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.8266651900773195</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8889379820051414</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9142136144398588</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.9032470334412082</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.8008173773129525</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.9132260407770613</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.8787027377685828</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.9448991601134114</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.892918153562795</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.7812677707650293</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9982017491680981</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8461513583441138</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8307023195876289</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8991041298409128</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9178771055933685</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.902317481213318</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.8148696491792726</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.8919638184944307</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.918150351685558</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.9732185844968704</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.9262987012987013</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7572545661299154</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.9988980987864505</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.8392709634746822</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.8038487315499354</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8239375803341902</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.9389587471763629</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.8953243811680958</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.8393885760257441</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.9147256306446592</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.8821411356513125</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.970515083440308</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.8949142396684702</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7563631003355281</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.9980142170946746</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.8729595061365474</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.8521345185708571</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.7884700353470437</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.9250916394995549</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8996240529342243</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.8356427996781979</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.9246689504827157</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.899185594936487</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.9991976893453145</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.9025946817082998</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.7282930968732715</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9986158537686133</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.8810700374807084</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.8386356314432989</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.911039926092545</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9357414641409966</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8825269687162891</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.849538213998391</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9178470811123872</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.8394727844938678</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.9569803313183187</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.9295545067342005</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.7587976816652982</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9987043808037284</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.8067651543152837</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.8404327077963918</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.842615279562982</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.9248794192233106</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8865938511326862</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.8246757843925985</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.9175648614424124</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9051292616002313</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.967795431444926</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.922122712098538</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.7383862565729891</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9988471992925965</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.8335381630012937</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.7790987695377452</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.8813524425518239</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9332103882276893</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9299873841259394</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.8761699388477631</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.905150631681244</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9264037430184974</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.9831186807896003</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.9149304596113106</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7602588760511576</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9988026284544638</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.8292437715881531</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.861792715049434</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.7574811214652957</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9352963353704706</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8723288152046046</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.8576669348350765</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.8925319215197759</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.8946802579349654</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.9974326059050065</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.9226131000345343</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.7433982395305415</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9974304594101808</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.877630631292717</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.7897329059273999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9460355077120822</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9202094798171329</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9246597692765418</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.7689332260659694</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.903661164746185</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.868336386987052</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.98423459563543</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8967652814550477</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7232359115129985</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9986512645826593</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.8519438524288969</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.8327007490335052</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8675188785347043</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9256745839392471</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9062621359223301</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.9079452936444087</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.9115130900845186</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9102181974384375</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.9685622068867134</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.915607229193047</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.7350302847071676</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9990807074941781</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.8304091203104786</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.8326856475515465</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.7865520565552699</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.9184852195315997</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9066423948220065</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.8340788415124699</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.9052159103179512</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.8982212832358794</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.9764261131617896</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.9072982617704616</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.784651675454054</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9989908645587876</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.8481388921557098</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.8259581809112071</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.8344448015426642</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.91893861617045</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9119192584060117</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.8904538139684584</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.9455931823278763</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9010503912307439</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.9775718183277162</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.8790503822418716</v>
       </c>
     </row>
   </sheetData>
